--- a/농사게임기획서.xlsx
+++ b/농사게임기획서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\com\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ansdu\OneDrive\바탕 화면\졸업작품\FarmGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38A316D-0B80-4937-BDAE-2BD753F44E51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE17105-A269-4E5C-A708-3AC190B17C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{27BEAA28-5B79-42D1-A405-55D22F8178A8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{27BEAA28-5B79-42D1-A405-55D22F8178A8}"/>
   </bookViews>
   <sheets>
     <sheet name="작업순서" sheetId="1" r:id="rId1"/>
@@ -855,7 +855,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -867,6 +867,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -882,18 +891,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1836,29 +1833,29 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1878,121 +1875,121 @@
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-    </row>
-    <row r="3" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+    </row>
+    <row r="3" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-    </row>
-    <row r="4" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-    </row>
-    <row r="5" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-    </row>
-    <row r="6" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-    </row>
-    <row r="7" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-    </row>
-    <row r="8" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+    </row>
+    <row r="4" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+    </row>
+    <row r="5" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+    </row>
+    <row r="6" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+    </row>
+    <row r="7" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+    </row>
+    <row r="8" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2008,8 +2005,8 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>117</v>
       </c>
       <c r="B9" s="3"/>
@@ -2026,8 +2023,8 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>118</v>
       </c>
       <c r="B10" s="3"/>
@@ -2044,7 +2041,7 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2060,8 +2057,8 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
         <v>129</v>
       </c>
       <c r="B12" s="3"/>
@@ -2096,7 +2093,7 @@
       <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2107,673 +2104,673 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A841A5-F755-4A1F-9254-A21D56A93074}">
   <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="Q50" sqref="Q50"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="6"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="9"/>
       <c r="D3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="6"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="9"/>
       <c r="D4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="6"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="9"/>
       <c r="D5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="6"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="9"/>
       <c r="D6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="6"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="9"/>
       <c r="D7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
       <c r="D9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
       <c r="D10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
       <c r="D11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
       <c r="D12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
       <c r="D13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="6" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="6"/>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="9"/>
       <c r="D15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="6"/>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="9"/>
       <c r="D16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="6"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="9"/>
       <c r="D17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="6"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="9"/>
       <c r="D18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="6" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="6"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="9"/>
       <c r="D23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="6"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="9"/>
       <c r="D24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="6"/>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="9"/>
       <c r="D25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="6"/>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="9"/>
       <c r="D26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="6"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="6"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="6"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="6"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="9"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="9"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="9"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="9"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="8"/>
       <c r="D32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="8"/>
       <c r="D33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
       <c r="D34" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="8"/>
       <c r="D35" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="8"/>
       <c r="D36" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="8"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="8"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D39" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="8"/>
       <c r="D40" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="8"/>
       <c r="D41" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="8"/>
       <c r="D42" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="8"/>
       <c r="D43" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="8"/>
       <c r="D44" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="8"/>
       <c r="D45" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="5" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="8"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="8"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="8"/>
       <c r="D49" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="8"/>
       <c r="D50" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="8"/>
       <c r="D51" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="5"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="6" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="8"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="8"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="8"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="8"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="8"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="8"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D58" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="6"/>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="9"/>
       <c r="D59" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="6"/>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="9"/>
       <c r="D60" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="6"/>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="9"/>
       <c r="D61" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="6"/>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="9"/>
       <c r="D62" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="6"/>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="9"/>
       <c r="D63" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="6"/>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="9"/>
       <c r="D64" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="6"/>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="9"/>
       <c r="D65" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="6"/>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="9"/>
       <c r="D66" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="6"/>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="9"/>
       <c r="D67" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="5" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="8" t="s">
         <v>49</v>
       </c>
       <c r="D68" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="5"/>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="8"/>
       <c r="D69" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="5"/>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="8"/>
       <c r="D70" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="5"/>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="8"/>
       <c r="D71" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="4"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="5"/>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="8"/>
       <c r="D72" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="5"/>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="8"/>
       <c r="D73" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="5"/>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="8"/>
       <c r="D74" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="5"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="4"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="5"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="5"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="5"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="4"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="6" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="8"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="8"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="8"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="8"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="9" t="s">
         <v>56</v>
       </c>
       <c r="D79" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="4"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="6"/>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="9"/>
       <c r="D80" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="6"/>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="9"/>
       <c r="D81" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="6"/>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="9"/>
       <c r="D82" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="6"/>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="9"/>
       <c r="D83" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="6"/>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="9"/>
       <c r="D84" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="6"/>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="9"/>
       <c r="D85" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="6"/>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="9"/>
       <c r="D86" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="6"/>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="9"/>
       <c r="D87" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="6"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="6"/>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="9"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2804,42 +2801,42 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="8"/>
       <c r="C1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="8"/>
       <c r="C2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="8"/>
       <c r="C3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="5"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="8"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>72</v>
       </c>
@@ -2865,98 +2862,98 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="8"/>
       <c r="C1" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
       <c r="C2" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A4" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A6" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A9" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A11" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="7"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="2" t="s">
         <v>89</v>
       </c>
@@ -2970,34 +2967,34 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A13" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="7"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A15" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="7"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="1" t="s">
         <v>95</v>
       </c>
@@ -3021,13 +3018,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84AF7EA0-7519-45A5-AC20-258C422E8CC9}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>101</v>
       </c>
@@ -3044,7 +3041,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3059,20 +3056,20 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>112</v>
       </c>
@@ -3083,7 +3080,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>113</v>
       </c>
@@ -3091,7 +3088,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>107</v>
       </c>
@@ -3099,7 +3096,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>115</v>
       </c>
@@ -3107,7 +3104,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>114</v>
       </c>
@@ -3115,7 +3112,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -3123,7 +3120,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>116</v>
       </c>
@@ -3131,42 +3128,42 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G9" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G10" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G11" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G12" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G13" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G15" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G16" t="s">
         <v>62</v>
       </c>
@@ -3186,19 +3183,19 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -3217,44 +3214,44 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>106</v>
       </c>

--- a/농사게임기획서.xlsx
+++ b/농사게임기획서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ansdu\OneDrive\바탕 화면\졸업작품\FarmGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE17105-A269-4E5C-A708-3AC190B17C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFD9575-6DF6-4801-B31C-FD1A57E4E34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{27BEAA28-5B79-42D1-A405-55D22F8178A8}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="146">
   <si>
     <t>1. 예전 수업 엑셀 기획서 찾아서 저장해놓자.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -770,12 +770,59 @@
     <t>상자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>쓸만한 에셋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skybox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fantasy Skybox FREE | 2D Sky | Unity Asset Store</t>
+  </si>
+  <si>
+    <t>Buttons Set | 2D GUI | Unity Asset Store</t>
+  </si>
+  <si>
+    <t>버튼UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 픽업 파티클</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/vfx/item-pickup-vfx-urp-241404</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">음식 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Food FREE - Low Poly Asset Pack by ithappy | 3D Food | Unity Asset Store</t>
+  </si>
+  <si>
+    <t>오브젝트 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object Insights Highlighter | Systems | Unity Asset Store</t>
+  </si>
+  <si>
+    <t>아이템 터질때 연출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Break Items - Toon VFX | VFX Particles | Unity Asset Store</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -805,6 +852,15 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -850,12 +906,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -892,9 +951,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1492,7 +1555,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>685799</xdr:colOff>
+      <xdr:colOff>670559</xdr:colOff>
       <xdr:row>89</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -2102,10 +2165,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A841A5-F755-4A1F-9254-A21D56A93074}">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N95" sqref="N95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2771,6 +2834,59 @@
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="9"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A93" t="s">
+        <v>134</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
+        <v>137</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
+        <v>138</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A96" t="s">
+        <v>140</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A97" t="s">
+        <v>142</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
+        <v>144</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>145</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2787,9 +2903,17 @@
     <mergeCell ref="C31:C38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B93" r:id="rId1" display="https://assetstore.unity.com/packages/2d/textures-materials/sky/fantasy-skybox-free-18353" xr:uid="{DF50FD04-89D5-46F3-9857-1F10DA96AE16}"/>
+    <hyperlink ref="B94" r:id="rId2" display="https://assetstore.unity.com/packages/2d/gui/buttons-set-211824" xr:uid="{EB975706-2DE4-483B-ACC9-BBD33626238B}"/>
+    <hyperlink ref="C95" r:id="rId3" xr:uid="{210DCF98-5B52-4615-90A9-396D7B7A1BAE}"/>
+    <hyperlink ref="B96" r:id="rId4" display="https://assetstore.unity.com/packages/3d/props/food/food-free-low-poly-asset-pack-by-ithappy-260726" xr:uid="{0A61765A-835E-4721-B416-75F6691A8AD2}"/>
+    <hyperlink ref="C97" r:id="rId5" display="https://assetstore.unity.com/packages/templates/systems/object-insights-highlighter-252109" xr:uid="{2A972FA3-4F8E-4E2B-BBA8-422D25B9BC65}"/>
+    <hyperlink ref="C98" r:id="rId6" display="https://assetstore.unity.com/packages/vfx/particles/break-items-toon-vfx-255067" xr:uid="{D1B50D99-ED5D-448E-B8A4-BB9BFA4F0B57}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId7"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>
 

--- a/농사게임기획서.xlsx
+++ b/농사게임기획서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ansdu\OneDrive\바탕 화면\졸업작품\FarmGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFD9575-6DF6-4801-B31C-FD1A57E4E34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B01A57-E073-4864-905A-E058F241C34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{27BEAA28-5B79-42D1-A405-55D22F8178A8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="8" xr2:uid="{27BEAA28-5B79-42D1-A405-55D22F8178A8}"/>
   </bookViews>
   <sheets>
     <sheet name="작업순서" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="142">
   <si>
     <t>1. 예전 수업 엑셀 기획서 찾아서 저장해놓자.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -635,38 +635,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>할아버지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>할머니</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>대략적인 맵 - 대부분의 물건과 집은 나중에 플레이어가 생성하는 형식으로 만든다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>마을이장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공무원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마을이웃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>양돈업자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>축산업자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>토마토</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -816,6 +788,18 @@
   </si>
   <si>
     <t>Break Items - Toon VFX | VFX Particles | Unity Asset Store</t>
+  </si>
+  <si>
+    <t>게임 맵 완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 움직임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC 배치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -936,6 +920,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -950,9 +937,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1593,6 +1577,407 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>670559</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>670559</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C68584E-D6D5-8CAE-5263-D6F4C345D58E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3352799" y="0"/>
+          <a:ext cx="1341120" cy="1325880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>670559</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>670559</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20F71626-9B74-4928-14C9-077AA7686FBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3352799" y="1325880"/>
+          <a:ext cx="1341120" cy="1325880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E04C816-72FB-4E2E-4922-1B17BBB13807}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3352800" y="2651760"/>
+          <a:ext cx="1341120" cy="1325880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BFC47E2-D7C2-AAF0-F673-56E0489C6ECC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6035040" y="0"/>
+          <a:ext cx="1341120" cy="1325880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E40543D-9DD6-F748-7816-327F817ED42C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6035040" y="1325880"/>
+          <a:ext cx="1341120" cy="1325880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>670559</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>670559</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EE8D538-189A-DBF7-AF3C-C97D238940B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6035039" y="2651760"/>
+          <a:ext cx="1341120" cy="1325880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92294872-9C3E-7D4A-D863-3F0D99AD89B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8717280" y="0"/>
+          <a:ext cx="1341120" cy="1325880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>670559</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>220979</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>670559</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>220979</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="그림 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{208F23C9-044C-A5FD-E6E2-7475416A5514}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8717279" y="1325879"/>
+          <a:ext cx="1341120" cy="1325880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>670559</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>670559</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="그림 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A0A378F-55F8-64FB-64F1-183A3830AF44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8717279" y="2651760"/>
+          <a:ext cx="1341120" cy="1325880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -1890,10 +2275,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84BD9C53-370B-4A82-9D52-F45710EB6310}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1921,6 +2306,21 @@
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1941,116 +2341,116 @@
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
     </row>
     <row r="3" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
     </row>
     <row r="4" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
     </row>
     <row r="5" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
     </row>
     <row r="6" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
     </row>
     <row r="7" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
     </row>
     <row r="8" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3"/>
@@ -2070,7 +2470,7 @@
     </row>
     <row r="9" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2088,7 +2488,7 @@
     </row>
     <row r="10" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2122,7 +2522,7 @@
     </row>
     <row r="12" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2167,8 +2567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A841A5-F755-4A1F-9254-A21D56A93074}">
   <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N95" sqref="N95"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N96" sqref="N96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2179,11 +2579,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
@@ -2191,49 +2591,49 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="9"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="10"/>
       <c r="D3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="9"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="10"/>
       <c r="D4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="9"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="10"/>
       <c r="D5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="9"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="10"/>
       <c r="D6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="9"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="10"/>
       <c r="D7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D8" t="s">
@@ -2241,49 +2641,49 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
       <c r="D9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
       <c r="D10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
       <c r="D11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
       <c r="D12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
       <c r="D13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="9" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D14" t="s">
@@ -2291,56 +2691,56 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="9"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="10"/>
       <c r="D15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="9"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="10"/>
       <c r="D16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="9"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="10"/>
       <c r="D17" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="9"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="10"/>
       <c r="D18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="9"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="10"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="9"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="10"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="9"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="10"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="9" t="s">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D22" t="s">
@@ -2348,61 +2748,61 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="9"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="10"/>
       <c r="D23" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="9"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="10"/>
       <c r="D24" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="9"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="10"/>
       <c r="D25" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="9"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="10"/>
       <c r="D26" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="9"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="10"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="9"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="10"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="9"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="10"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="9"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="10"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="8" t="s">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D31" t="s">
@@ -2410,59 +2810,59 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="9"/>
       <c r="D32" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="9"/>
       <c r="D33" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="9"/>
       <c r="D34" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="9"/>
       <c r="D35" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="8"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="9"/>
       <c r="D36" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="9"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="9"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="8" t="s">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D39" t="s">
@@ -2470,67 +2870,67 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="8"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="9"/>
       <c r="D40" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="8"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="9"/>
       <c r="D41" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="8"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="9"/>
       <c r="D42" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="8"/>
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="9"/>
       <c r="D43" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="8"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="9"/>
       <c r="D44" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="8"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="9"/>
       <c r="D45" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="8"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="9"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="8"/>
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="9"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="8" t="s">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D48" t="s">
@@ -2538,63 +2938,63 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="8"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="9"/>
       <c r="D49" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="8"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="9"/>
       <c r="D50" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="8"/>
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="9"/>
       <c r="D51" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="8"/>
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="9"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="8"/>
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="9"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="8"/>
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="9"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="8"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="9"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="8"/>
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="9"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="8"/>
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="9"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="9" t="s">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D58" t="s">
@@ -2602,81 +3002,81 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="9"/>
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="10"/>
       <c r="D59" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="9"/>
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="10"/>
       <c r="D60" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="9"/>
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="10"/>
       <c r="D61" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="9"/>
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="10"/>
       <c r="D62" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="9"/>
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="10"/>
       <c r="D63" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="9"/>
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="10"/>
       <c r="D64" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="9"/>
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="10"/>
       <c r="D65" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="9"/>
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="10"/>
       <c r="D66" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="9"/>
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="10"/>
       <c r="D67" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="8" t="s">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="9" t="s">
         <v>49</v>
       </c>
       <c r="D68" t="s">
@@ -2684,77 +3084,77 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="8"/>
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="9"/>
       <c r="D69" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="8"/>
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="9"/>
       <c r="D70" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A71" s="7"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="8"/>
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="9"/>
       <c r="D71" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A72" s="7"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="8"/>
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="9"/>
       <c r="D72" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A73" s="7"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="8"/>
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="9"/>
       <c r="D73" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A74" s="7"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="8"/>
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="9"/>
       <c r="D74" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="8"/>
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="9"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A76" s="7"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="8"/>
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="9"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="8"/>
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="9"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="8"/>
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="9"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="9" t="s">
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="10" t="s">
         <v>56</v>
       </c>
       <c r="D79" t="s">
@@ -2762,130 +3162,130 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="9"/>
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="10"/>
       <c r="D80" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A81" s="7"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="9"/>
+      <c r="A81" s="8"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="10"/>
       <c r="D81" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A82" s="7"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="9"/>
+      <c r="A82" s="8"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="10"/>
       <c r="D82" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A83" s="7"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="9"/>
+      <c r="A83" s="8"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="10"/>
       <c r="D83" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A84" s="7"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="9"/>
+      <c r="A84" s="8"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="10"/>
       <c r="D84" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A85" s="7"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="9"/>
+      <c r="A85" s="8"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="10"/>
       <c r="D85" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A86" s="7"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="9"/>
+      <c r="A86" s="8"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="10"/>
       <c r="D86" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A87" s="7"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="9"/>
+      <c r="A87" s="8"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="10"/>
       <c r="D87" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A88" s="7"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="9"/>
+      <c r="A88" s="8"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="10"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A89" s="7"/>
-      <c r="B89" s="7"/>
-      <c r="C89" s="9"/>
+      <c r="A89" s="8"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="10"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>134</v>
-      </c>
-      <c r="B93" s="12" t="s">
-        <v>135</v>
+        <v>127</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>137</v>
-      </c>
-      <c r="B94" s="12" t="s">
-        <v>136</v>
+        <v>130</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>138</v>
-      </c>
-      <c r="C95" s="12" t="s">
-        <v>139</v>
+        <v>131</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>140</v>
-      </c>
-      <c r="B96" s="12" t="s">
-        <v>141</v>
+        <v>133</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>142</v>
-      </c>
-      <c r="C97" s="12" t="s">
-        <v>143</v>
+        <v>135</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>144</v>
-      </c>
-      <c r="C98" s="12" t="s">
-        <v>145</v>
+        <v>137</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2928,37 +3328,37 @@
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="9"/>
       <c r="C1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="8"/>
+      <c r="B2" s="9"/>
       <c r="C2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="9"/>
       <c r="C3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="9"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
@@ -2989,95 +3389,95 @@
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="9"/>
       <c r="C1" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="10"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="2" t="s">
         <v>89</v>
       </c>
@@ -3092,33 +3492,33 @@
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="10"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="10"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="1" t="s">
         <v>95</v>
       </c>
@@ -3150,7 +3550,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3184,56 +3584,56 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" t="s">
         <v>112</v>
       </c>
-      <c r="D2" t="s">
-        <v>119</v>
-      </c>
       <c r="G2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" t="s">
         <v>113</v>
-      </c>
-      <c r="G3" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G4" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G5" t="s">
         <v>115</v>
-      </c>
-      <c r="G5" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G6" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -3241,40 +3641,40 @@
         <v>45</v>
       </c>
       <c r="G7" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G8" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G9" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G10" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G11" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G12" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G13" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
@@ -3311,12 +3711,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
@@ -3332,57 +3732,47 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B385C6D-70D8-4CA3-870F-B83916D90A57}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="9" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>106</v>
-      </c>
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B6"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/농사게임기획서.xlsx
+++ b/농사게임기획서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ansdu\OneDrive\바탕 화면\졸업작품\FarmGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B01A57-E073-4864-905A-E058F241C34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A34365-2BCC-4AB1-B950-7493CD14C542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="8" xr2:uid="{27BEAA28-5B79-42D1-A405-55D22F8178A8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="826" activeTab="8" xr2:uid="{27BEAA28-5B79-42D1-A405-55D22F8178A8}"/>
   </bookViews>
   <sheets>
     <sheet name="작업순서" sheetId="1" r:id="rId1"/>
@@ -2567,7 +2567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A841A5-F755-4A1F-9254-A21D56A93074}">
   <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N96" sqref="N96"/>
     </sheetView>
   </sheetViews>
@@ -3732,39 +3732,54 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B385C6D-70D8-4CA3-870F-B83916D90A57}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
         <v>98</v>
       </c>
       <c r="B1" s="9"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C9" s="7"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C12" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/농사게임기획서.xlsx
+++ b/농사게임기획서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ansdu\OneDrive\바탕 화면\졸업작품\FarmGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A34365-2BCC-4AB1-B950-7493CD14C542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F27F32B-7769-4D43-90D9-C8818A23EDAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="826" activeTab="8" xr2:uid="{27BEAA28-5B79-42D1-A405-55D22F8178A8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="826" activeTab="3" xr2:uid="{27BEAA28-5B79-42D1-A405-55D22F8178A8}"/>
   </bookViews>
   <sheets>
     <sheet name="작업순서" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="150">
   <si>
     <t>1. 예전 수업 엑셀 기획서 찾아서 저장해놓자.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -799,6 +799,38 @@
   </si>
   <si>
     <t>NPC 배치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조작키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뛰기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shift</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -849,7 +881,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -880,6 +912,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -898,7 +936,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -937,6 +975,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1581,14 +1622,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>670559</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>670559</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1613,7 +1654,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3352799" y="0"/>
+          <a:off x="4023360" y="0"/>
           <a:ext cx="1341120" cy="1325880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1625,14 +1666,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>670559</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>670559</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1657,7 +1698,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3352799" y="1325880"/>
+          <a:off x="4023360" y="1325880"/>
           <a:ext cx="1341120" cy="1325880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1669,13 +1710,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1701,7 +1742,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3352800" y="2651760"/>
+          <a:off x="4023360" y="2651760"/>
           <a:ext cx="1341120" cy="1325880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1713,13 +1754,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1745,7 +1786,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6035040" y="0"/>
+          <a:off x="6705600" y="0"/>
           <a:ext cx="1341120" cy="1325880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1757,13 +1798,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1789,7 +1830,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6035040" y="1325880"/>
+          <a:off x="6705600" y="1325880"/>
           <a:ext cx="1341120" cy="1325880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1801,14 +1842,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>670559</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>670559</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1833,7 +1874,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6035039" y="2651760"/>
+          <a:off x="6705600" y="2651760"/>
           <a:ext cx="1341120" cy="1325880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1845,13 +1886,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1877,7 +1918,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8717280" y="0"/>
+          <a:off x="9387840" y="0"/>
           <a:ext cx="1341120" cy="1325880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1889,16 +1930,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>670559</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>220979</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>670559</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>220979</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1921,7 +1962,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8717279" y="1325879"/>
+          <a:off x="9387840" y="1325880"/>
           <a:ext cx="1341120" cy="1325880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1933,14 +1974,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>670559</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>670559</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1965,7 +2006,95 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8717279" y="2651760"/>
+          <a:off x="9387840" y="2651760"/>
+          <a:ext cx="1341120" cy="1325880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59E80E49-49EF-2842-CC0A-9995964D40D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1341121" y="1"/>
+          <a:ext cx="1341120" cy="1325880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="그림 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23B0DAEC-B3EC-8FB6-0877-A3492905E8CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1341120" y="1325880"/>
           <a:ext cx="1341120" cy="1325880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3380,10 +3509,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A74B3C-2B39-4286-9B15-E1416541B992}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3521,6 +3650,38 @@
       <c r="B16" s="11"/>
       <c r="C16" s="1" t="s">
         <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -3734,56 +3895,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B385C6D-70D8-4CA3-870F-B83916D90A57}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="7"/>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+    </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:B6"/>
+    <mergeCell ref="A1:B12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/농사게임기획서.xlsx
+++ b/농사게임기획서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ansdu\OneDrive\바탕 화면\졸업작품\FarmGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F27F32B-7769-4D43-90D9-C8818A23EDAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDDB855-6B2F-4557-A7A9-7F3D1B3DF4D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="826" activeTab="3" xr2:uid="{27BEAA28-5B79-42D1-A405-55D22F8178A8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="826" activeTab="8" xr2:uid="{27BEAA28-5B79-42D1-A405-55D22F8178A8}"/>
   </bookViews>
   <sheets>
     <sheet name="작업순서" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="162">
   <si>
     <t>1. 예전 수업 엑셀 기획서 찾아서 저장해놓자.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -831,6 +831,54 @@
   </si>
   <si>
     <t>shift</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토마토 상인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양봉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옥수수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을이장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌀 농부1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌀 농부2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애니 완</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동적 움직임</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3511,7 +3559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A74B3C-2B39-4286-9B15-E1416541B992}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
@@ -3893,68 +3941,115 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B385C6D-70D8-4CA3-870F-B83916D90A57}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
         <v>98</v>
       </c>
       <c r="B1" s="13"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J2" t="s">
+        <v>157</v>
+      </c>
+      <c r="M2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E3" t="s">
+        <v>160</v>
+      </c>
+      <c r="M3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="7"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E8" t="s">
+        <v>158</v>
+      </c>
+      <c r="I8" t="s">
+        <v>159</v>
+      </c>
+      <c r="M8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E9" t="s">
+        <v>160</v>
+      </c>
+      <c r="I9" t="s">
+        <v>160</v>
+      </c>
+      <c r="M9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="7"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="7"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="E14" t="s">
+        <v>152</v>
+      </c>
+      <c r="I14" t="s">
+        <v>156</v>
+      </c>
+      <c r="M14" t="s">
+        <v>153</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/농사게임기획서.xlsx
+++ b/농사게임기획서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ansdu\OneDrive\바탕 화면\졸업작품\FarmGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDDB855-6B2F-4557-A7A9-7F3D1B3DF4D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9125638D-E5AA-4284-B36E-8CDB958B2F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="826" activeTab="8" xr2:uid="{27BEAA28-5B79-42D1-A405-55D22F8178A8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="826" activeTab="1" xr2:uid="{27BEAA28-5B79-42D1-A405-55D22F8178A8}"/>
   </bookViews>
   <sheets>
     <sheet name="작업순서" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="164">
   <si>
     <t>1. 예전 수업 엑셀 기획서 찾아서 저장해놓자.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -790,18 +790,6 @@
     <t>Break Items - Toon VFX | VFX Particles | Unity Asset Store</t>
   </si>
   <si>
-    <t>게임 맵 완성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 움직임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC 배치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>조작키</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -874,11 +862,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>애니 완</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동적 움직임</t>
+    <t>6. 맵 작업 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. UI 에셋 찾아서 충돌 상호작용 및 배치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI후보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/2d/gui/icons/2d-casual-ui-hd-82080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/2d/gui/extra-clean-ui-138812</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/2d/gui/match-3-game-interface-design-kit-289477</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/2d/gui/hyper-casual-mobile-gui-268659</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2452,10 +2460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84BD9C53-370B-4A82-9D52-F45710EB6310}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2485,19 +2493,14 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>157</v>
+      </c>
+    </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2742,10 +2745,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A841A5-F755-4A1F-9254-A21D56A93074}">
-  <dimension ref="A1:D98"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N96" sqref="N96"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M93" sqref="M93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3463,6 +3466,29 @@
       </c>
       <c r="C98" s="7" t="s">
         <v>138</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
+        <v>159</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B101" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B102" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B103" s="7" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3487,10 +3513,14 @@
     <hyperlink ref="B96" r:id="rId4" display="https://assetstore.unity.com/packages/3d/props/food/food-free-low-poly-asset-pack-by-ithappy-260726" xr:uid="{0A61765A-835E-4721-B416-75F6691A8AD2}"/>
     <hyperlink ref="C97" r:id="rId5" display="https://assetstore.unity.com/packages/templates/systems/object-insights-highlighter-252109" xr:uid="{2A972FA3-4F8E-4E2B-BBA8-422D25B9BC65}"/>
     <hyperlink ref="C98" r:id="rId6" display="https://assetstore.unity.com/packages/vfx/particles/break-items-toon-vfx-255067" xr:uid="{D1B50D99-ED5D-448E-B8A4-BB9BFA4F0B57}"/>
+    <hyperlink ref="B100" r:id="rId7" xr:uid="{36358BF8-EEEF-4FB7-971C-3586A4432111}"/>
+    <hyperlink ref="B101" r:id="rId8" xr:uid="{D77B35FD-6723-4D65-AD73-C891FE815453}"/>
+    <hyperlink ref="B102" r:id="rId9" xr:uid="{77E49E5B-6D39-4AB9-9102-6204EB961207}"/>
+    <hyperlink ref="B103" r:id="rId10" xr:uid="{80FD7AF6-5E2C-45DD-BC93-175CEB5A0366}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId7"/>
-  <drawing r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId11"/>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>
 
@@ -3702,34 +3732,34 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B21" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C21" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3943,8 +3973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B385C6D-70D8-4CA3-870F-B83916D90A57}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3959,27 +3989,21 @@
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="E2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J2" t="s">
         <v>154</v>
       </c>
-      <c r="J2" t="s">
-        <v>157</v>
-      </c>
       <c r="M2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
-      <c r="E3" t="s">
-        <v>160</v>
-      </c>
-      <c r="M3" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="13"/>
@@ -4003,28 +4027,19 @@
       <c r="B8" s="13"/>
       <c r="C8" s="7"/>
       <c r="E8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="7"/>
-      <c r="E9" t="s">
-        <v>160</v>
-      </c>
-      <c r="I9" t="s">
-        <v>160</v>
-      </c>
-      <c r="M9" t="s">
-        <v>160</v>
-      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="13"/>
@@ -4042,13 +4057,13 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
